--- a/QHKH/BIEUMAUEXCEL/BM03CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM03CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792DFFB-3BD9-49CE-84B4-D2457C452FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95840E-7C41-4322-B591-D96FAD13C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="330" yWindow="2055" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,9 @@
     <t xml:space="preserve">QUY HOẠCH SỬ DỤNG ĐẤT ĐẾN NĂM 20…
 HUYỆN (QUẬN, THỊ XÃ, THÀNH PHỐ THUỘC TỈNH, THÀNH PHỐ THUỘC THÀNH PHỐ TRỰC THUỘC TRUNG ƯƠNG) …
 </t>
+  </si>
+  <si>
+    <t>BM03/CH</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +938,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -941,6 +947,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="AB2" s="19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
